--- a/biology/Botanique/Fuji_(pomme)/Fuji_(pomme).xlsx
+++ b/biology/Botanique/Fuji_(pomme)/Fuji_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fuji est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une variété de pomme rouge très sucrée, riche en jus et à la texture ferme et croquante.
 Au Japon, cette variété représente 80 % de la consommation nationale. La Chine est un producteur important de cette variété.
@@ -544,9 +558,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apports normalisés pour la fuji crue avec sa pelure, antioxydants : 2589 µ mol TE/100g[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apports normalisés pour la fuji crue avec sa pelure, antioxydants : 2589 µ mol TE/100g.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété créée au Japon en 1939 par le centre de recherche en horticulture de Morioka[2]; exportée en 1962 par la station de recherche en horticulture de Tohoku. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété créée au Japon en 1939 par le centre de recherche en horticulture de Morioka; exportée en 1962 par la station de recherche en horticulture de Tohoku. 
 Son nom n'a rien à voir avec le mont Fuji mais provient du nom de la ville où cette variété de pomme a été cultivée et élaborée en premier lieu : Fujisaki, circonscription de la préfecture d'Aomori, au nord du Japon.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cultivar issu du croisement des variétés Ralls Janet × Red Delicious.
 Mutants:
@@ -639,10 +659,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Groupe de floraison : D (simultanément à la Golden delicious).
-S-génotype : S1S9[3].
+S-génotype : S1S9.
 Incompatibles : Dalinette…
 Semi-compatibles : Reine des Reinettes, Ontario, Cox's Orange pippin, Florina…
 Compatibles : Rubinola, Topaz, Rajka, Golden Delicious, Granny Smith…</t>
@@ -673,9 +695,11 @@
           <t>Susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Tavelure : élevée[4]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tavelure : élevée
 Feu bactérien : élevée</t>
         </is>
       </c>
@@ -704,7 +728,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Arbre de vigueur moyenne, ce cultivar est fortement porté à l'alternance, il faut procéder à un éclaircissage et une arcure sévères pour obtenir une récolte régulière.
 Maturité : la cueillette s'effectue fin octobre entre 180 et 190 jours après la floraison pour limiter l’incidence des maladies post-récoltes (craquelure de la peau et brunissement interne).
